--- a/Master_inventory.xlsx
+++ b/Master_inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingnextfoodcollective.sharepoint.com/sites/ReGeNL-Actielijn32-DataGovernance/Gedeelde documenten/Data Governance/01_Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingnextfoodcollective.sharepoint.com/sites/ReGeNL-Actielijn32-DataGovernance/Gedeelde documenten/Data Governance/01_RDM_Document_Drafts/03_Inventory Matrices/Old drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{D003C70E-49C6-4B29-B984-291B57378EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8088FC-1A65-4284-BC15-D1EF683C51E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{990E4ACC-1D7C-4397-8A12-93B9CAA4D249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Column1</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>33. date of entry (Date)</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -220,19 +226,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -273,6 +266,22 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF33CC33"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -323,31 +332,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -367,122 +486,13 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF33CC33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -495,46 +505,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCA2E347-1D12-4F5E-85F5-49B07174FA8C}" name="Table1" displayName="Table1" ref="A1:AK40" totalsRowShown="0" headerRowDxfId="0" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCA2E347-1D12-4F5E-85F5-49B07174FA8C}" name="Table1" displayName="Table1" ref="A1:AK40" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:AK40" xr:uid="{DCA2E347-1D12-4F5E-85F5-49B07174FA8C}"/>
   <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{BF419F53-A304-44A3-81E9-01714B9F24C9}" name="SL no" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{DC6FBB82-76CB-48BE-A16B-4023AFFC64C4}" name="1. actielijn work package" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{F38E43FB-AAF9-4205-8913-7BECC937950A}" name="2. dataset title or type" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{19AE8642-75F6-4FC7-9B85-EEFA08737C0C}" name="3a. dataset description" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{6E273E1F-D7E4-4463-951A-6B9DF0B771D0}" name="Dataset Access (Who has access?)" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{4DE9CF0E-FF51-4FB9-980D-83DC2DF881A1}" name="4. formats csv (put yes or NO)" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{EF249ED1-208D-46BE-A5C1-4CAEF94181A6}" name="5. formats xlsx (put yes or NO)" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{9C35003B-558A-4588-9679-5B4359B448AE}" name="6. formats docx (put yes or NO)" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{25E8B045-C10E-4658-8895-009AD2A6B6C8}" name="7. formats shp (put yes or NO)" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{3E215730-9044-4386-A54D-DBD86CB3FE15}" name="8. formats geotiff (put yes or NO)" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{DE32538C-8383-4323-994C-940E2549F49F}" name="9. formats audio (put yes or NO)" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{52C26E18-8CF8-43CD-912B-A19E72D43AC2}" name="11. formats other (Text field)" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{390EEE80-B5EA-4A5B-A9DF-C2AB39A0CD41}" name="12. Data Source , Primary / Secondary" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{EA7376BB-C501-4A9A-82FC-0FCDBB650255}" name="13. Data Owner Controller , WUR / Partner / External" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{0829B36B-7D15-41A7-829F-5593127B7D60}" name="14. Data Owner External Name (Text), Optional if &quot;External&quot; selected" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{7876D1B3-DF0D-4CB8-9AC1-8A360A57DF93}" name="15. Contains Personal Data (Yes/No), Yes or No" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{D63FEA5B-7A35-463F-891F-BD7E32DDA7D5}" name="16. WUR REC Required , Yes / No / Unknown" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{6483BD0A-DFBC-45F4-955A-766184638FA2}" name="17. Sensitivity Level , Negligible / Some / Serious / Disruptive" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{5FBCCC9D-00D5-4893-984C-B39506DCD6BB}" name="18. Estimated Data Volume (Text), e.g., &quot;5 GB&quot;" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{826AF639-30DA-4DB3-9929-28453D76B9C8}" name="19. Data Volume Precision , Exact / Approximate" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{A0C42CEE-91E6-4698-8692-BC51A9727F1E}" name="20. Storage SurfDrive (Yes/No), Yes or No" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{49E8F937-0A05-4095-A494-DA4CF6C33253}" name="21. Storage OneDrive (Yes/No), Yes or No" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{00BCC61A-A3AE-4B55-81AC-883915026C89}" name="22. Storage External Cloud (Yes/No), Yes or No" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{467F70B4-0496-495C-9DCD-36D16896D86C}" name="23. Storage Secure Server (Yes/No), Yes or No" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{00B256AD-BDFC-4CB5-8E87-28AE4F256383}" name="24. Storage Other (Text), Text field" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{B28C1A3A-0CFC-4C5F-AD21-18F57D148FE5}" name="25. Metadata Available , Yes / No / In Progress" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{82A78500-4E1E-4406-8021-88558230142A}" name="26. Metadata Standard Used (Text), Dublin Core, DataCite, other standard" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{4320DEA9-2EDE-4D43-94A0-15A1E314D335}" name="27. FAIR Status (Dropdown), Choose from dropdown list" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{71CD0F90-EEBF-404A-985A-476B582936A2}" name="28. Planned for Publication , Yes / Internal Only / No" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{BBDFA434-0F56-464C-8177-134C13DC9CFE}" name="29. Publication License (Text), If marked YES in Q28" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{D482972F-C4F3-459F-AEB5-551E745CFDD4}" name="30. Archive Location (Dropdown), Choose from dropdown list" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{C60AF5BE-D143-4D32-98EC-18FFC813D1EC}" name="31. Other Archiving notes " dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{51EB142B-BFB2-4CEB-A1AC-51BD0265AD52}" name="32. prepared by (Text: name of submitter)" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{9AFF4F84-27CD-4C34-B2EC-3E5A48CA6459}" name="33. date of entry (Date)" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{FB4B9F78-0930-47A3-A088-A19D08707803}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{DFF57A83-6E3C-4777-A6EA-AF7922BCDB53}" name="Column2" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{53F999C7-5ADD-4F7E-857E-83B02E20D1B5}" name="Column3" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BF419F53-A304-44A3-81E9-01714B9F24C9}" name="SL no" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{DC6FBB82-76CB-48BE-A16B-4023AFFC64C4}" name="1. actielijn work package" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{F38E43FB-AAF9-4205-8913-7BECC937950A}" name="2. dataset title or type" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{19AE8642-75F6-4FC7-9B85-EEFA08737C0C}" name="3a. dataset description" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{6E273E1F-D7E4-4463-951A-6B9DF0B771D0}" name="Dataset Access (Who has access?)" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{4DE9CF0E-FF51-4FB9-980D-83DC2DF881A1}" name="4. formats csv (put yes or NO)" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{EF249ED1-208D-46BE-A5C1-4CAEF94181A6}" name="5. formats xlsx (put yes or NO)" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{9C35003B-558A-4588-9679-5B4359B448AE}" name="6. formats docx (put yes or NO)" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{25E8B045-C10E-4658-8895-009AD2A6B6C8}" name="7. formats shp (put yes or NO)" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{3E215730-9044-4386-A54D-DBD86CB3FE15}" name="8. formats geotiff (put yes or NO)" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{DE32538C-8383-4323-994C-940E2549F49F}" name="9. formats audio (put yes or NO)" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{52C26E18-8CF8-43CD-912B-A19E72D43AC2}" name="11. formats other (Text field)" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{390EEE80-B5EA-4A5B-A9DF-C2AB39A0CD41}" name="12. Data Source , Primary / Secondary" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{EA7376BB-C501-4A9A-82FC-0FCDBB650255}" name="13. Data Owner Controller , WUR / Partner / External" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{0829B36B-7D15-41A7-829F-5593127B7D60}" name="14. Data Owner External Name (Text), Optional if &quot;External&quot; selected" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{7876D1B3-DF0D-4CB8-9AC1-8A360A57DF93}" name="15. Contains Personal Data (Yes/No), Yes or No" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{D63FEA5B-7A35-463F-891F-BD7E32DDA7D5}" name="16. WUR REC Required , Yes / No / Unknown" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{6483BD0A-DFBC-45F4-955A-766184638FA2}" name="17. Sensitivity Level , Negligible / Some / Serious / Disruptive" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{5FBCCC9D-00D5-4893-984C-B39506DCD6BB}" name="18. Estimated Data Volume (Text), e.g., &quot;5 GB&quot;" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{826AF639-30DA-4DB3-9929-28453D76B9C8}" name="19. Data Volume Precision , Exact / Approximate" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{A0C42CEE-91E6-4698-8692-BC51A9727F1E}" name="20. Storage SurfDrive (Yes/No), Yes or No" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{49E8F937-0A05-4095-A494-DA4CF6C33253}" name="21. Storage OneDrive (Yes/No), Yes or No" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{00BCC61A-A3AE-4B55-81AC-883915026C89}" name="22. Storage External Cloud (Yes/No), Yes or No" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{467F70B4-0496-495C-9DCD-36D16896D86C}" name="23. Storage Secure Server (Yes/No), Yes or No" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{00B256AD-BDFC-4CB5-8E87-28AE4F256383}" name="24. Storage Other (Text), Text field" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{B28C1A3A-0CFC-4C5F-AD21-18F57D148FE5}" name="25. Metadata Available , Yes / No / In Progress" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{82A78500-4E1E-4406-8021-88558230142A}" name="26. Metadata Standard Used (Text), Dublin Core, DataCite, other standard" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{4320DEA9-2EDE-4D43-94A0-15A1E314D335}" name="27. FAIR Status (Dropdown), Choose from dropdown list" dataDxfId="9"/>
+    <tableColumn id="29" xr3:uid="{71CD0F90-EEBF-404A-985A-476B582936A2}" name="28. Planned for Publication , Yes / Internal Only / No" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{BBDFA434-0F56-464C-8177-134C13DC9CFE}" name="29. Publication License (Text), If marked YES in Q28" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{D482972F-C4F3-459F-AEB5-551E745CFDD4}" name="30. Archive Location (Dropdown), Choose from dropdown list" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{C60AF5BE-D143-4D32-98EC-18FFC813D1EC}" name="31. Other Archiving notes " dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{51EB142B-BFB2-4CEB-A1AC-51BD0265AD52}" name="32. prepared by (Text: name of submitter)" dataDxfId="4"/>
+    <tableColumn id="34" xr3:uid="{9AFF4F84-27CD-4C34-B2EC-3E5A48CA6459}" name="33. date of entry (Date)" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{FB4B9F78-0930-47A3-A088-A19D08707803}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="36" xr3:uid="{DFF57A83-6E3C-4777-A6EA-AF7922BCDB53}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="37" xr3:uid="{53F999C7-5ADD-4F7E-857E-83B02E20D1B5}" name="Column3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -803,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,161 +826,182 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="9" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:37" s="7" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="9:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="9:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="9:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="9:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="9:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I31" s="3"/>
-    </row>
+    <row r="2" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0DA4FB0E-6C2E-41C0-AB25-E926B9640005}">
+          <x14:formula1>
+            <xm:f>variables!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>AE2:AE40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6ED11558-22FF-4034-92B7-7E24559D63F5}">
+          <x14:formula1>
+            <xm:f>variables!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:K40</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -979,63 +1010,71 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -1043,17 +1082,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1258,6 +1297,7 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="325cbc05-8c09-4072-8b3f-404f67334543"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1271,5 +1311,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFCF1D5-12E1-4B9B-98CB-8406D35CA52F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA1AF4-01FC-4899-883D-06981A3202E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="325cbc05-8c09-4072-8b3f-404f67334543"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>